--- a/scripts/cooper/revision/evaluation_results/v7.xlsx
+++ b/scripts/cooper/revision/evaluation_results/v7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6929515044738992</v>
+        <v>0.6977745944128456</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.564884146850157</v>
+        <v>0.5709370127613939</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.763496643906858</v>
+        <v>0.7723519748205556</v>
       </c>
     </row>
     <row r="5">
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6455453004329226</v>
+        <v>0.643292581523112</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6486078576255291</v>
+        <v>0.6302073998205638</v>
       </c>
     </row>
     <row r="7">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7763383668327805</v>
+        <v>0.7852563559759093</v>
       </c>
     </row>
     <row r="34">
@@ -1254,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>0.613109671555732</v>
+        <v>0.6447158096447982</v>
       </c>
     </row>
     <row r="35">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6024996362104467</v>
+        <v>0.633648154481264</v>
       </c>
     </row>
     <row r="36">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6503273318595298</v>
+        <v>0.6702274199283575</v>
       </c>
     </row>
     <row r="37">
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5962493349882528</v>
+        <v>0.6314079642930598</v>
       </c>
     </row>
     <row r="38">
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2005588606452648</v>
+        <v>0.2006129912943642</v>
       </c>
     </row>
     <row r="39">
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6473497396061956</v>
+        <v>0.6608776253973495</v>
       </c>
     </row>
     <row r="40">
@@ -1395,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5651082074792548</v>
+        <v>0.5670994764883641</v>
       </c>
     </row>
     <row r="41">
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.689618695858639</v>
+        <v>0.7257733702659058</v>
       </c>
     </row>
     <row r="42">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8041544043459805</v>
+        <v>0.8071139146900651</v>
       </c>
     </row>
     <row r="43">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7275610926768465</v>
+        <v>0.7616222662404689</v>
       </c>
     </row>
     <row r="44">
@@ -1494,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7312155241641592</v>
+        <v>0.7473694302006391</v>
       </c>
     </row>
     <row r="45">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6207872012123246</v>
+        <v>0.632570677448851</v>
       </c>
     </row>
     <row r="46">
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5854892011169497</v>
+        <v>0.6069985694085882</v>
       </c>
     </row>
     <row r="47">
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5069221172497804</v>
+        <v>0.5126151294248371</v>
       </c>
     </row>
     <row r="48">
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6485500103158348</v>
+        <v>0.6791592332762453</v>
       </c>
     </row>
     <row r="49">
@@ -1614,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6139251516332291</v>
+        <v>0.6381793652346497</v>
       </c>
     </row>
     <row r="50">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7107826879106753</v>
+        <v>0.7139368169515787</v>
       </c>
     </row>
     <row r="51">
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5139955840902545</v>
+        <v>0.5362217190033586</v>
       </c>
     </row>
     <row r="52">
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6413842142685077</v>
+        <v>0.689946039818607</v>
       </c>
     </row>
     <row r="53">
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3915746510694247</v>
+        <v>0.3950487245887939</v>
       </c>
     </row>
     <row r="54">
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3956104758388931</v>
+        <v>0.3971036855103607</v>
       </c>
     </row>
     <row r="55">
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7640291964825277</v>
+        <v>0.7662529445124673</v>
       </c>
     </row>
     <row r="56">
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5677052654588778</v>
+        <v>0.6329530502174314</v>
       </c>
     </row>
     <row r="57">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4537924235679032</v>
+        <v>0.4571962975391382</v>
       </c>
     </row>
     <row r="58">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7478871388028997</v>
+        <v>0.7487050248136055</v>
       </c>
     </row>
     <row r="59">
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3565746012567272</v>
+        <v>0.3575048432826825</v>
       </c>
     </row>
     <row r="60">
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6588435508759857</v>
+        <v>0.6605365344049627</v>
       </c>
     </row>
     <row r="61">
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6907674546066749</v>
+        <v>0.7100355239784139</v>
       </c>
     </row>
     <row r="62">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4768108274917792</v>
+        <v>0.5085348227188992</v>
       </c>
     </row>
     <row r="63">
@@ -1950,7 +1950,103 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3815016018942372</v>
+        <v>0.4015167145796245</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>stem_for_eval</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>20241019_Tomo-eval_SC_Synapse_36859_H3_SP_08_rec_2kb1dawbp_crop.h5</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>16</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.4336880868223935</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>stem_for_eval</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>20241019_Tomo-eval_PS_Synapse_36859_J1_66K_TS_CA3_PS_26_rec_2Kb1dawbp_crop.h5</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>42</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.3256262829284113</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>stem_for_eval</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20241019_Tomo-eval_PS_Synapse_36859_J2_66K_TS_R04_PS11_rec_2Kb1dawbp_crop.h5</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>38</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.3645743349881464</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>stem_for_eval</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>20241019_Tomo-eval_PS_Synapse_36859_J1_66K_TS_CA3_PS_46_rec_2Kb1dawbp_crop.h5</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>50</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.2171802961579164</v>
       </c>
     </row>
   </sheetData>
